--- a/TW_basic.xlsx
+++ b/TW_basic.xlsx
@@ -8,45 +8,46 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8ef2f88928e8089/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{90B8CEE0-D0CA-4F6F-BF04-CF5BF0D6CDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE163707-AFF9-46C8-8960-6833BB5B94F4}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{90B8CEE0-D0CA-4F6F-BF04-CF5BF0D6CDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1310B497-99A7-4635-A236-8DBAF10CCB19}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="17085" activeTab="1" xr2:uid="{3EDFDA48-E311-4EB8-9712-D26C83ECE829}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21525" windowHeight="14670" xr2:uid="{3EDFDA48-E311-4EB8-9712-D26C83ECE829}"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="Simple" sheetId="4" r:id="rId2"/>
-    <sheet name="TaxTables_etc" sheetId="5" r:id="rId3"/>
+    <sheet name="READ ME" sheetId="6" r:id="rId1"/>
+    <sheet name="General" sheetId="1" r:id="rId2"/>
+    <sheet name="Simple" sheetId="4" r:id="rId3"/>
+    <sheet name="TaxTables_etc" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="adl_med_base" localSheetId="1">Simple!$O$4</definedName>
+    <definedName name="adl_med_base" localSheetId="2">Simple!$O$4</definedName>
     <definedName name="adl_med_base">General!$P$4</definedName>
-    <definedName name="FIT_diffs" localSheetId="1">Simple!$P$8:$P$14</definedName>
+    <definedName name="FIT_diffs" localSheetId="2">Simple!$P$8:$P$14</definedName>
     <definedName name="FIT_diffs">General!$Q$8:$Q$14</definedName>
-    <definedName name="FIT_thresh" localSheetId="1">Simple!$N$8:$N$14</definedName>
+    <definedName name="FIT_thresh" localSheetId="2">Simple!$N$8:$N$14</definedName>
     <definedName name="FIT_thresh">General!$O$8:$O$14</definedName>
-    <definedName name="QBI_po_size" localSheetId="1">Simple!$O$6</definedName>
+    <definedName name="QBI_po_size" localSheetId="2">Simple!$O$6</definedName>
     <definedName name="QBI_po_size">General!$P$6</definedName>
-    <definedName name="QBI_po_start" localSheetId="1">Simple!$O$5</definedName>
+    <definedName name="QBI_po_start" localSheetId="2">Simple!$O$5</definedName>
     <definedName name="QBI_po_start">General!$P$5</definedName>
-    <definedName name="SIT_diffs" localSheetId="1">Simple!$P$26:$P$35</definedName>
+    <definedName name="SIT_diffs" localSheetId="2">Simple!$P$26:$P$35</definedName>
     <definedName name="SIT_diffs">General!$Q$26:$Q$35</definedName>
-    <definedName name="SIT_thresh" localSheetId="1">Simple!$N$26:$N$35</definedName>
+    <definedName name="SIT_thresh" localSheetId="2">Simple!$N$26:$N$35</definedName>
     <definedName name="SIT_thresh">General!$O$26:$O$35</definedName>
-    <definedName name="SS_cap" localSheetId="1">Simple!$O$3</definedName>
+    <definedName name="SS_cap" localSheetId="2">Simple!$O$3</definedName>
     <definedName name="SS_cap">General!$P$3</definedName>
-    <definedName name="st_creds" localSheetId="1">Simple!$O$22</definedName>
+    <definedName name="st_creds" localSheetId="2">Simple!$O$22</definedName>
     <definedName name="st_creds">General!$P$22</definedName>
-    <definedName name="st_ded_diff" localSheetId="1">Simple!$P$19:$P$21</definedName>
+    <definedName name="st_ded_diff" localSheetId="2">Simple!$P$19:$P$21</definedName>
     <definedName name="st_ded_diff">General!$Q$19:$Q$21</definedName>
-    <definedName name="st_ded_thresh" localSheetId="1">Simple!$N$19:$N$21</definedName>
+    <definedName name="st_ded_thresh" localSheetId="2">Simple!$N$19:$N$21</definedName>
     <definedName name="st_ded_thresh">General!$O$19:$O$21</definedName>
-    <definedName name="st_pr_cap" localSheetId="1">Simple!$O$24</definedName>
+    <definedName name="st_pr_cap" localSheetId="2">Simple!$O$24</definedName>
     <definedName name="st_pr_cap">General!$P$24</definedName>
-    <definedName name="st_pr_rate" localSheetId="1">Simple!$O$23</definedName>
+    <definedName name="st_pr_rate" localSheetId="2">Simple!$O$23</definedName>
     <definedName name="st_pr_rate">General!$P$23</definedName>
-    <definedName name="st_start" localSheetId="1">Simple!$O$17</definedName>
+    <definedName name="st_start" localSheetId="2">Simple!$O$17</definedName>
     <definedName name="st_start">General!$P$17</definedName>
-    <definedName name="standard_ded" localSheetId="1">Simple!$O$2</definedName>
+    <definedName name="standard_ded" localSheetId="2">Simple!$O$2</definedName>
     <definedName name="standard_ded">General!$P$2</definedName>
     <definedName name="TaxRates_2025_MFJ">#REF!</definedName>
     <definedName name="TaxRates_2025_S">#REF!</definedName>
@@ -94,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="101">
   <si>
     <t>SS_cap</t>
   </si>
@@ -403,6 +404,24 @@
   <si>
     <t>SD_2026</t>
   </si>
+  <si>
+    <t>THIS IS FOR GUESSTIMATING PURPOSES</t>
+  </si>
+  <si>
+    <t>These sheets are intended only for rudimentary comparisons between</t>
+  </si>
+  <si>
+    <t>W-2 wages and self-employment income. They are not intended to be</t>
+  </si>
+  <si>
+    <t>used for "real" tax calculations.</t>
+  </si>
+  <si>
+    <t>ONLY. DO NOT USE THIS FILE FOR ACTUAL</t>
+  </si>
+  <si>
+    <t>TAX CALCULATIONS.</t>
+  </si>
 </sst>
 </file>
 
@@ -414,7 +433,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,6 +444,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -451,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -462,6 +495,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,6 +814,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B606FB5-3522-416F-AE8F-4472BBD46995}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A1" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A2" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="61.5" x14ac:dyDescent="0.9">
+      <c r="A3" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED81B743-216D-49E1-A5DE-D4F2167EF0E2}">
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:Q119"/>
@@ -2524,11 +2605,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAF25B8-5368-4205-BDF6-3F9BD1210CA0}">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -4015,12 +4096,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE7DF07-8237-48B2-B46F-B751F90B5D6F}">
   <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="N27:O27"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TW_basic.xlsx
+++ b/TW_basic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b8ef2f88928e8089/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{90B8CEE0-D0CA-4F6F-BF04-CF5BF0D6CDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1310B497-99A7-4635-A236-8DBAF10CCB19}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{90B8CEE0-D0CA-4F6F-BF04-CF5BF0D6CDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B96B809-F1AF-4A8B-896F-A51D3C6DD0B4}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21525" windowHeight="14670" xr2:uid="{3EDFDA48-E311-4EB8-9712-D26C83ECE829}"/>
+    <workbookView xWindow="975" yWindow="975" windowWidth="23055" windowHeight="13740" activeTab="1" xr2:uid="{3EDFDA48-E311-4EB8-9712-D26C83ECE829}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="6" r:id="rId1"/>
@@ -514,14 +514,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -559,7 +555,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -665,7 +661,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -807,7 +803,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -817,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B606FB5-3522-416F-AE8F-4472BBD46995}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,8 +860,8 @@
   <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:Q119"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1146,7 @@
         <v>18000</v>
       </c>
       <c r="E13" s="5" t="str">
-        <f t="shared" ref="E13:E17" ca="1" si="2">_xlfn.FORMULATEXT(C13)</f>
+        <f t="shared" ref="E13:E18" ca="1" si="2">_xlfn.FORMULATEXT(C13)</f>
         <v>=C10-C11-C12</v>
       </c>
       <c r="O13">
@@ -1265,6 +1261,10 @@
         <f>ROUND(IF(st_pr_cap=0,MIN(SS_cap,D14),IF(st_pr_cap=1,D10,MIN(D10,st_pr_cap)))*st_pr_rate,0)</f>
         <v>0</v>
       </c>
+      <c r="E18" s="5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=ROUND(IF(st_pr_cap=0,MIN(SS_cap,C14),IF(st_pr_cap=1,C10,MIN(C10,st_pr_cap)))*st_pr_rate,0)</v>
+      </c>
       <c r="O18" t="s">
         <v>39</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="str">
-        <f t="shared" ref="E26:E27" ca="1" si="4">_xlfn.FORMULATEXT(C26)</f>
+        <f t="shared" ref="E26:E28" ca="1" si="4">_xlfn.FORMULATEXT(C26)</f>
         <v>=ROUND(C24*0.062,0)</v>
       </c>
       <c r="L26" s="1"/>
@@ -1459,6 +1459,10 @@
       <c r="D28">
         <f>ROUND(IF(st_pr_cap=0,MIN(SS_cap,D24),IF(st_pr_cap=1,D20,MIN(D20,st_pr_cap)))*st_pr_rate,0)</f>
         <v>0</v>
+      </c>
+      <c r="E28" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>=ROUND(IF(st_pr_cap=0,MIN(SS_cap,C24),IF(st_pr_cap=1,C20,MIN(C20,st_pr_cap)))*st_pr_rate,0)</v>
       </c>
       <c r="L28" s="1"/>
       <c r="N28" s="1"/>
@@ -2976,7 +2980,7 @@
         <v>28730</v>
       </c>
       <c r="D17" s="5" t="str">
-        <f t="shared" ref="D17:D25" ca="1" si="2">_xlfn.FORMULATEXT(B17)</f>
+        <f t="shared" ref="D17:D21" ca="1" si="2">_xlfn.FORMULATEXT(B17)</f>
         <v>=B15-B16</v>
       </c>
       <c r="N17" t="s">
